--- a/service/src/test/resources/templates/Promos.xlsx
+++ b/service/src/test/resources/templates/Promos.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\cisco\service\src\test\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>PN</t>
   </si>
@@ -72,13 +67,19 @@
   </si>
   <si>
     <t>PP-Fast70694-120128</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>14-MAR-2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,21 +486,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
@@ -509,9 +510,10 @@
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +538,11 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="26.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -562,8 +567,11 @@
       <c r="H2" s="9">
         <v>8</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="26.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -588,8 +596,11 @@
       <c r="H3" s="9">
         <v>8</v>
       </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -613,6 +624,9 @@
       </c>
       <c r="H4" s="9">
         <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/service/src/test/resources/templates/Promos.xlsx
+++ b/service/src/test/resources/templates/Promos.xlsx
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,7 +500,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,7 +552,7 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>42</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -578,7 +581,7 @@
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -607,7 +610,7 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -631,5 +634,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/service/src/test/resources/templates/Promos.xlsx
+++ b/service/src/test/resources/templates/Promos.xlsx
@@ -72,7 +72,7 @@
     <t>End date</t>
   </si>
   <si>
-    <t>14-MAR-2014</t>
+    <t>14-03-2014</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,6 +215,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -500,7 +503,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,7 +548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -570,11 +573,11 @@
       <c r="H2" s="9">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -599,11 +602,11 @@
       <c r="H3" s="9">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -628,7 +631,7 @@
       <c r="H4" s="9">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
